--- a/part2/part2q2data.xlsx
+++ b/part2/part2q2data.xlsx
@@ -6088,7 +6088,7 @@
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
